--- a/data/disneydata/touringplans_data_dictionary.xlsx
+++ b/data/disneydata/touringplans_data_dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (TouringPlans.com)\Stats Team\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demetriusgreen/Dropbox/Stats_n_Programming/R Code/bigdataR_course/data/disneydata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D524D492-B33F-5247-9C81-76EE4D052180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="11720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="files" sheetId="5" r:id="rId1"/>
@@ -2031,7 +2032,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2195,7 +2196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2375,6 +2376,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2537,7 +2544,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -2545,15 +2552,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2875,149 +2884,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="80.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>630</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>631</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>651</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>632</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>634</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>635</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>636</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>637</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>638</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>639</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>640</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>646</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>647</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>648</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>649</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>650</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3030,7 +3039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3038,14 +3047,14 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3056,7 +3065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3067,7 +3076,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>616</v>
       </c>
@@ -3078,7 +3087,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>617</v>
       </c>
@@ -3089,7 +3098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>644</v>
       </c>
@@ -3100,34 +3109,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3138,15 +3147,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A163" sqref="A163:XFD163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -3154,7 +3163,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>628</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3196,7 +3205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3210,7 +3219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3224,7 +3233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3238,21 +3247,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3266,49 +3275,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3322,7 +3331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3336,7 +3345,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3350,7 +3359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3364,7 +3373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3378,7 +3387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3392,7 +3401,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -3420,7 +3429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3434,7 +3443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -3448,21 +3457,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -3476,7 +3485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3490,7 +3499,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -3504,7 +3513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -3518,7 +3527,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +3541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -3546,7 +3555,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -3560,7 +3569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3574,7 +3583,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -3588,7 +3597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3602,7 +3611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3616,21 +3625,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -3644,21 +3653,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3672,7 +3681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3686,7 +3695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -3700,7 +3709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -3714,7 +3723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3728,7 +3737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -3756,7 +3765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -3770,7 +3779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -3784,7 +3793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -3798,7 +3807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -3812,7 +3821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -3826,7 +3835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3840,7 +3849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -3854,7 +3863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -3868,7 +3877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3882,7 +3891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -3896,7 +3905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -3910,35 +3919,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="11" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="10" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3952,7 +3961,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -3966,35 +3975,35 @@
         <v>623</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="10" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -4008,7 +4017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -4022,7 +4031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -4036,7 +4045,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -4050,7 +4059,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -4064,7 +4073,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -4078,7 +4087,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -4092,7 +4101,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -4106,7 +4115,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -4134,7 +4143,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>110</v>
       </c>
@@ -4148,7 +4157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>110</v>
       </c>
@@ -4162,7 +4171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>110</v>
       </c>
@@ -4176,7 +4185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>110</v>
       </c>
@@ -4190,7 +4199,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -4204,7 +4213,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -4218,7 +4227,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>110</v>
       </c>
@@ -4232,7 +4241,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>110</v>
       </c>
@@ -4246,7 +4255,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>110</v>
       </c>
@@ -4260,7 +4269,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>110</v>
       </c>
@@ -4274,7 +4283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -4288,7 +4297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>110</v>
       </c>
@@ -4302,7 +4311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -4316,7 +4325,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -4330,7 +4339,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -4344,7 +4353,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -4358,7 +4367,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -4372,7 +4381,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
@@ -4386,7 +4395,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -4400,7 +4409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>110</v>
       </c>
@@ -4414,7 +4423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -4428,35 +4437,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="11" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="11" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -4470,7 +4479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>183</v>
       </c>
@@ -4484,7 +4493,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>183</v>
       </c>
@@ -4498,7 +4507,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>183</v>
       </c>
@@ -4512,7 +4521,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>183</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>183</v>
       </c>
@@ -4540,7 +4549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -4554,7 +4563,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -4568,7 +4577,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>183</v>
       </c>
@@ -4582,7 +4591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>183</v>
       </c>
@@ -4610,7 +4619,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>183</v>
       </c>
@@ -4624,7 +4633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>183</v>
       </c>
@@ -4638,7 +4647,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -4652,7 +4661,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>183</v>
       </c>
@@ -4666,7 +4675,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>183</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>183</v>
       </c>
@@ -4694,7 +4703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>183</v>
       </c>
@@ -4708,7 +4717,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>183</v>
       </c>
@@ -4722,7 +4731,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>183</v>
       </c>
@@ -4736,7 +4745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>183</v>
       </c>
@@ -4750,7 +4759,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>183</v>
       </c>
@@ -4764,7 +4773,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>183</v>
       </c>
@@ -4778,7 +4787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>183</v>
       </c>
@@ -4792,7 +4801,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>183</v>
       </c>
@@ -4806,7 +4815,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>183</v>
       </c>
@@ -4820,7 +4829,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>183</v>
       </c>
@@ -4834,7 +4843,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>183</v>
       </c>
@@ -4848,7 +4857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -4862,7 +4871,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -4876,7 +4885,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>183</v>
       </c>
@@ -4890,7 +4899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>183</v>
       </c>
@@ -4904,7 +4913,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>183</v>
       </c>
@@ -4918,7 +4927,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>183</v>
       </c>
@@ -4932,7 +4941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>183</v>
       </c>
@@ -4946,7 +4955,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>183</v>
       </c>
@@ -4960,7 +4969,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -4974,7 +4983,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>183</v>
       </c>
@@ -4988,7 +4997,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>183</v>
       </c>
@@ -5002,7 +5011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>183</v>
       </c>
@@ -5016,7 +5025,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>183</v>
       </c>
@@ -5030,7 +5039,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>183</v>
       </c>
@@ -5044,7 +5053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>272</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -5072,7 +5081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -5086,7 +5095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>272</v>
       </c>
@@ -5100,21 +5109,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="140" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>283</v>
       </c>
@@ -5128,7 +5137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -5142,7 +5151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>283</v>
       </c>
@@ -5156,35 +5165,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="144" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="D144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="D144" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>292</v>
       </c>
@@ -5198,7 +5207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -5212,7 +5221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -5226,7 +5235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>292</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>292</v>
       </c>
@@ -5254,7 +5263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>292</v>
       </c>
@@ -5268,7 +5277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>292</v>
       </c>
@@ -5282,7 +5291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>292</v>
       </c>
@@ -5296,7 +5305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>292</v>
       </c>
@@ -5310,21 +5319,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="155" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D155" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>308</v>
       </c>
@@ -5338,7 +5347,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>308</v>
       </c>
@@ -5352,7 +5361,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>308</v>
       </c>
@@ -5366,7 +5375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>308</v>
       </c>
@@ -5380,7 +5389,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>308</v>
       </c>
@@ -5394,7 +5403,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>308</v>
       </c>
@@ -5408,7 +5417,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>308</v>
       </c>
@@ -5422,21 +5431,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="163" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D163" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>308</v>
       </c>
@@ -5450,7 +5459,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>308</v>
       </c>
@@ -5464,7 +5473,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>308</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>308</v>
       </c>
@@ -5492,7 +5501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>308</v>
       </c>
@@ -5506,7 +5515,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>308</v>
       </c>
@@ -5520,7 +5529,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>308</v>
       </c>
@@ -5534,7 +5543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>308</v>
       </c>
@@ -5548,7 +5557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>308</v>
       </c>
@@ -5562,7 +5571,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>308</v>
       </c>
@@ -5576,7 +5585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>308</v>
       </c>
@@ -5590,7 +5599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>308</v>
       </c>
@@ -5604,7 +5613,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>308</v>
       </c>
@@ -5618,7 +5627,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -5632,7 +5641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>308</v>
       </c>
@@ -5646,7 +5655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>308</v>
       </c>
@@ -5660,7 +5669,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>308</v>
       </c>
@@ -5674,7 +5683,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>308</v>
       </c>
@@ -5688,7 +5697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>308</v>
       </c>
@@ -5702,7 +5711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>308</v>
       </c>
@@ -5716,7 +5725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>308</v>
       </c>
@@ -5730,7 +5739,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>308</v>
       </c>
@@ -5744,7 +5753,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>308</v>
       </c>
@@ -5758,7 +5767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>308</v>
       </c>
@@ -5772,7 +5781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>308</v>
       </c>
@@ -5786,7 +5795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>308</v>
       </c>
@@ -5800,7 +5809,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>308</v>
       </c>
@@ -5814,7 +5823,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>308</v>
       </c>
@@ -5834,21 +5843,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>629</v>
       </c>
@@ -5859,69 +5868,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>653</v>
       </c>
       <c r="B2" t="s">
         <v>659</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>654</v>
       </c>
       <c r="B3" t="s">
         <v>660</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>655</v>
       </c>
       <c r="B4" t="s">
         <v>661</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>656</v>
       </c>
       <c r="B5" t="s">
         <v>662</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>657</v>
       </c>
       <c r="B6" t="s">
         <v>664</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>658</v>
       </c>
       <c r="B7" t="s">
         <v>665</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5931,7 +5940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5939,13 +5948,13 @@
       <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -5953,7 +5962,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>438</v>
       </c>
@@ -5961,7 +5970,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>442</v>
       </c>
@@ -5969,7 +5978,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>459</v>
       </c>
@@ -5977,7 +5986,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>446</v>
       </c>
@@ -5985,7 +5994,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>429</v>
       </c>
@@ -5993,7 +6002,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>426</v>
       </c>
@@ -6001,7 +6010,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>458</v>
       </c>
@@ -6009,7 +6018,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>441</v>
       </c>
@@ -6017,7 +6026,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>440</v>
       </c>
@@ -6025,7 +6034,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>444</v>
       </c>
@@ -6033,7 +6042,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>434</v>
       </c>
@@ -6041,7 +6050,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>427</v>
       </c>
@@ -6049,7 +6058,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>447</v>
       </c>
@@ -6057,7 +6066,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>424</v>
       </c>
@@ -6065,7 +6074,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>425</v>
       </c>
@@ -6073,7 +6082,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>435</v>
       </c>
@@ -6081,7 +6090,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>433</v>
       </c>
@@ -6089,7 +6098,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>431</v>
       </c>
@@ -6097,7 +6106,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>443</v>
       </c>
@@ -6105,7 +6114,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>455</v>
       </c>
@@ -6113,7 +6122,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>456</v>
       </c>
@@ -6121,7 +6130,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>423</v>
       </c>
@@ -6129,7 +6138,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>430</v>
       </c>
@@ -6137,7 +6146,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>448</v>
       </c>
@@ -6145,7 +6154,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>432</v>
       </c>
@@ -6153,7 +6162,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>449</v>
       </c>
@@ -6161,7 +6170,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>450</v>
       </c>
@@ -6169,7 +6178,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -6177,7 +6186,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>452</v>
       </c>
@@ -6185,7 +6194,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>439</v>
       </c>
@@ -6193,7 +6202,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>453</v>
       </c>
@@ -6201,7 +6210,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>451</v>
       </c>
@@ -6209,7 +6218,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>428</v>
       </c>
@@ -6217,7 +6226,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>457</v>
       </c>
@@ -6225,7 +6234,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>437</v>
       </c>
@@ -6233,7 +6242,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>445</v>
       </c>
@@ -6241,7 +6250,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>454</v>
       </c>
@@ -6250,7 +6259,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B38">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6258,7 +6267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6266,13 +6275,13 @@
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>614</v>
       </c>
@@ -6280,7 +6289,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -6288,7 +6297,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>475</v>
       </c>
@@ -6296,7 +6305,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>477</v>
       </c>
@@ -6304,7 +6313,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>483</v>
       </c>
@@ -6312,7 +6321,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>515</v>
       </c>
@@ -6320,7 +6329,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>485</v>
       </c>
@@ -6328,7 +6337,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -6336,7 +6345,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>531</v>
       </c>
@@ -6344,7 +6353,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>499</v>
       </c>
@@ -6352,7 +6361,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>501</v>
       </c>
@@ -6360,7 +6369,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>544</v>
       </c>
@@ -6368,7 +6377,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>586</v>
       </c>
@@ -6376,7 +6385,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>463</v>
       </c>
@@ -6384,7 +6393,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>471</v>
       </c>
@@ -6392,7 +6401,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>529</v>
       </c>
@@ -6400,7 +6409,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>553</v>
       </c>
@@ -6408,7 +6417,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>491</v>
       </c>
@@ -6416,7 +6425,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>493</v>
       </c>
@@ -6424,7 +6433,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>556</v>
       </c>
@@ -6432,7 +6441,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>495</v>
       </c>
@@ -6440,7 +6449,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>513</v>
       </c>
@@ -6448,7 +6457,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>487</v>
       </c>
@@ -6456,7 +6465,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>503</v>
       </c>
@@ -6464,7 +6473,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>507</v>
       </c>
@@ -6472,7 +6481,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>509</v>
       </c>
@@ -6480,7 +6489,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>505</v>
       </c>
@@ -6488,7 +6497,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>511</v>
       </c>
@@ -6496,7 +6505,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>517</v>
       </c>
@@ -6504,7 +6513,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>519</v>
       </c>
@@ -6512,7 +6521,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>527</v>
       </c>
@@ -6520,7 +6529,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>521</v>
       </c>
@@ -6528,7 +6537,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>523</v>
       </c>
@@ -6536,7 +6545,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>533</v>
       </c>
@@ -6544,7 +6553,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>489</v>
       </c>
@@ -6552,7 +6561,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>610</v>
       </c>
@@ -6560,7 +6569,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>610</v>
       </c>
@@ -6568,7 +6577,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>537</v>
       </c>
@@ -6576,7 +6585,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>535</v>
       </c>
@@ -6584,7 +6593,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>598</v>
       </c>
@@ -6592,7 +6601,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>467</v>
       </c>
@@ -6600,7 +6609,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>539</v>
       </c>
@@ -6608,7 +6617,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>611</v>
       </c>
@@ -6616,7 +6625,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>551</v>
       </c>
@@ -6624,7 +6633,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>608</v>
       </c>
@@ -6632,7 +6641,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>554</v>
       </c>
@@ -6640,7 +6649,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>558</v>
       </c>
@@ -6648,7 +6657,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>560</v>
       </c>
@@ -6656,7 +6665,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>562</v>
       </c>
@@ -6664,7 +6673,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>465</v>
       </c>
@@ -6672,7 +6681,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>547</v>
       </c>
@@ -6680,7 +6689,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>566</v>
       </c>
@@ -6688,7 +6697,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>568</v>
       </c>
@@ -6696,7 +6705,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>602</v>
       </c>
@@ -6704,7 +6713,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>570</v>
       </c>
@@ -6712,7 +6721,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>574</v>
       </c>
@@ -6720,7 +6729,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>578</v>
       </c>
@@ -6728,7 +6737,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>564</v>
       </c>
@@ -6736,7 +6745,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>576</v>
       </c>
@@ -6744,7 +6753,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>572</v>
       </c>
@@ -6752,7 +6761,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>606</v>
       </c>
@@ -6760,7 +6769,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>549</v>
       </c>
@@ -6768,7 +6777,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>580</v>
       </c>
@@ -6776,7 +6785,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>469</v>
       </c>
@@ -6784,7 +6793,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>525</v>
       </c>
@@ -6792,7 +6801,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>592</v>
       </c>
@@ -6800,7 +6809,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>594</v>
       </c>
@@ -6808,7 +6817,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>584</v>
       </c>
@@ -6816,7 +6825,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>596</v>
       </c>
@@ -6824,7 +6833,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>590</v>
       </c>
@@ -6832,7 +6841,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>588</v>
       </c>
@@ -6840,7 +6849,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>600</v>
       </c>
@@ -6848,7 +6857,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>541</v>
       </c>
@@ -6856,7 +6865,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>604</v>
       </c>
@@ -6864,7 +6873,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>497</v>
       </c>
@@ -6872,7 +6881,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>585</v>
       </c>
@@ -6880,7 +6889,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>462</v>
       </c>
@@ -6888,7 +6897,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>479</v>
       </c>
@@ -6896,7 +6905,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>542</v>
       </c>
@@ -6904,7 +6913,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>582</v>
       </c>
@@ -6913,7 +6922,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B80">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B80">
     <sortCondition ref="A2:A80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/disneydata/touringplans_data_dictionary.xlsx
+++ b/data/disneydata/touringplans_data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demetriusgreen/Dropbox/Stats_n_Programming/R Code/bigdataR_course/data/disneydata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D524D492-B33F-5247-9C81-76EE4D052180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2DF280-DBE6-B04F-8323-22E9CCEAF509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="11720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3151,8 +3151,8 @@
   <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A163" sqref="A163:XFD163"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6271,8 +6271,8 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
